--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject41.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject41.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.99958967067344817</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.80160813104050299</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -257,7 +257,7 @@
         <v>0</v>
       </c>
       <c r="AR1" s="0">
-        <v>0</v>
+        <v>0.74551231454127342</v>
       </c>
       <c r="AS1" s="0">
         <v>0</v>
@@ -266,7 +266,7 @@
         <v>0</v>
       </c>
       <c r="AU1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.66076795556498813</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.73347263623829517</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.7987087748702274</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.72458627497738504</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.72432500112262066</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="BG2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.58566453864437562</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.87634497938973621</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.99286037331190991</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.84728002203559005</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="0">
-        <v>0</v>
+        <v>0.70321570038141745</v>
       </c>
       <c r="X3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.83376708623198104</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.88578099112270481</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.9908634784191428</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="0">
-        <v>0</v>
+        <v>0.71726380967592374</v>
       </c>
       <c r="S4" s="0">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="BE4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="0">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.61907251355774728</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.98758574656225573</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.73906276585403852</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.80641223448761989</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="BF5" s="0">
-        <v>0</v>
+        <v>0.82645234113266119</v>
       </c>
       <c r="BG5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.62940143746938815</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.76950912727597365</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="0">
-        <v>0</v>
+        <v>0.57237095177809372</v>
       </c>
       <c r="AB6" s="0">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="BM6" s="0">
-        <v>0</v>
+        <v>0.71964095950613272</v>
       </c>
       <c r="BN6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.91237750197290202</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.89070661632450054</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.79763612431322661</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="0">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="AV7" s="0">
-        <v>0</v>
+        <v>0.6490050678570195</v>
       </c>
       <c r="AW7" s="0">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="0">
-        <v>0</v>
+        <v>0.50551477487663909</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="0">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.71502299782399037</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.73185752343479316</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.91953263462828094</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="BL8" s="0">
-        <v>0</v>
+        <v>0.91787747736406355</v>
       </c>
       <c r="BM8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.78414032243415543</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.63588464090796926</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="0">
-        <v>0</v>
+        <v>0.80360215688225844</v>
       </c>
       <c r="AF9" s="0">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="0">
-        <v>0</v>
+        <v>0.86868677105314185</v>
       </c>
       <c r="AY9" s="0">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="BL9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.9608511352228255</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.72591733727498242</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.92643954940867468</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="0">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="BN10" s="0">
-        <v>0</v>
+        <v>0.73112371548254695</v>
       </c>
       <c r="BO10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.54676887352285664</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.71527665042591226</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.85769331419913675</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.56677959721080606</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.58914250644611288</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="0">
-        <v>0</v>
+        <v>0.62834043315272448</v>
       </c>
       <c r="V12" s="0">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="0">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.68235007113487489</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.823465559301091</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.81058717676301306</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="0">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="BC13" s="0">
-        <v>0</v>
+        <v>0.70051855325416579</v>
       </c>
       <c r="BD13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.75259326959754969</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.95980613510115043</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="AT14" s="0">
-        <v>0</v>
+        <v>0.50832746093204728</v>
       </c>
       <c r="AU14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.70951451609259253</v>
       </c>
       <c r="Q15" s="0">
-        <v>0</v>
+        <v>0.71022724029936679</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.80538629507621895</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.91196345191192152</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.71186211194907001</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.68729330375550945</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0</v>
+        <v>0.52041276831592209</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.59788244636629551</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.56799032879367783</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.72312565429219311</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="0">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="0">
-        <v>0</v>
+        <v>0.78287507434435799</v>
       </c>
       <c r="E18" s="0">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.71652920966889355</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.54030403884165712</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.62394115414427298</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="0">
-        <v>0</v>
+        <v>0.81319415764400338</v>
       </c>
       <c r="Y18" s="0">
         <v>0</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="AW18" s="0">
-        <v>0</v>
+        <v>0.58504796208101428</v>
       </c>
       <c r="AX18" s="0">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="BE18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="0">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="BH18" s="0">
-        <v>0</v>
+        <v>0.74369553290722923</v>
       </c>
       <c r="BI18" s="0">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="BO18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP18" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.65486646834897744</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.80636612854858081</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.95912699983626326</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4093,22 +4093,22 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.5011157054182287</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.996787686593397</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.50691572396995055</v>
       </c>
       <c r="W20" s="0">
-        <v>0</v>
+        <v>0.70755466109082732</v>
       </c>
       <c r="X20" s="0">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="AH20" s="0">
-        <v>0</v>
+        <v>0.61816656343593901</v>
       </c>
       <c r="AI20" s="0">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="BL20" s="0">
-        <v>0</v>
+        <v>0.72114082877060981</v>
       </c>
       <c r="BM20" s="0">
         <v>0</v>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="0">
-        <v>0</v>
+        <v>0.76941794146598852</v>
       </c>
       <c r="M21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.76873187846473923</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.55863604232916531</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.67531899675770335</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.97602517818492696</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.94783400888187064</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.65131454113367071</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.78214164919569851</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="BK22" s="0">
-        <v>0</v>
+        <v>0.95083535124919627</v>
       </c>
       <c r="BL22" s="0">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="BP22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="0">
-        <v>0</v>
+        <v>0.68348084746491744</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
@@ -4717,22 +4717,22 @@
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>0</v>
+        <v>0.71665208328950514</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.76760518276459866</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.59066734982400126</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="0">
-        <v>0</v>
+        <v>0.80972379438223763</v>
       </c>
       <c r="S24" s="0">
         <v>0</v>
@@ -4929,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.78669934854879231</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.57060400695664193</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5022,10 +5022,10 @@
         <v>0</v>
       </c>
       <c r="BA24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC24" s="0">
         <v>0</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="BI24" s="0">
-        <v>0</v>
+        <v>0.95493004868761466</v>
       </c>
       <c r="BJ24" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.85013604972938039</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.73102503519606066</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.64255756526759578</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.64243874237861509</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.55938231913005909</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.78455112820245687</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="0">
-        <v>0</v>
+        <v>0.58482062852197902</v>
       </c>
       <c r="G27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.56656511821851807</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.89334169770480454</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.9284787483787158</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.59030904092327841</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.8551507705843564</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.70045058209609368</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.74270323269755045</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5813,10 +5813,10 @@
         <v>0</v>
       </c>
       <c r="AP28" s="0">
-        <v>0</v>
+        <v>0.58340906479151544</v>
       </c>
       <c r="AQ28" s="0">
-        <v>0</v>
+        <v>0.57188860850921852</v>
       </c>
       <c r="AR28" s="0">
         <v>0</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="BF28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG28" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.66031582123051646</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.57833827638024338</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.8153522875375514</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.94949026874095466</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.53212203724726925</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.93310298694314453</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.65658824413217909</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="0">
-        <v>0</v>
+        <v>0.67503256539741008</v>
       </c>
       <c r="J31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.94403795663719636</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.79528066292791499</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.82985033293138433</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="AO31" s="0">
-        <v>0</v>
+        <v>0.91848619813314281</v>
       </c>
       <c r="AP31" s="0">
         <v>0</v>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="AZ31" s="0">
-        <v>0</v>
+        <v>0.91936158617052888</v>
       </c>
       <c r="BA31" s="0">
         <v>0</v>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="BG31" s="0">
-        <v>0</v>
+        <v>0.63143613323988523</v>
       </c>
       <c r="BH31" s="0">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="0">
         <v>0</v>
@@ -6601,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.79455780362584583</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.96701304900656648</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="0">
-        <v>0</v>
+        <v>0.65954199089510834</v>
       </c>
       <c r="AS32" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.88281038166611225</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6819,10 +6819,10 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.99153469536763184</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="BF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG33" s="0">
         <v>0</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="BK33" s="0">
-        <v>0</v>
+        <v>0.58978621784067409</v>
       </c>
       <c r="BL33" s="0">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="0">
-        <v>0</v>
+        <v>0.93541608944169519</v>
       </c>
       <c r="U34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.93635087263524075</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.81657962994234401</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.69436615773615062</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.81545706160733078</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="0">
         <v>0</v>
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.89298028774078664</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.58550600892541549</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.72257852134098643</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="AR35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="0">
         <v>0</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="0">
         <v>0</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.65657075808499277</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.78711130038200328</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="0">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="0">
-        <v>0</v>
+        <v>0.9412821622225116</v>
       </c>
       <c r="AT36" s="0">
         <v>0</v>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="BJ36" s="0">
-        <v>0</v>
+        <v>0.76124612723843732</v>
       </c>
       <c r="BK36" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.81273166291140964</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.85643648509456882</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.8018215649742817</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.52535292103396436</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.99269615990007765</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.93972445487089751</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.74595998682626252</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.63571413049694137</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.8243163372761324</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.96375100914857403</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="0">
-        <v>0</v>
+        <v>0.92867833189556181</v>
       </c>
       <c r="BA39" s="0">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.67700920740095838</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.94754371425409067</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.95636540587256902</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.69075659878441287</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="AE41" s="0">
-        <v>0</v>
+        <v>0.97210619858971703</v>
       </c>
       <c r="AF41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.50984479896716106</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.91647635224788104</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.92403049625705824</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.99364011224079585</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="0">
-        <v>0</v>
+        <v>0.69264997277674878</v>
       </c>
       <c r="AC42" s="0">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.75554656535324471</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.51571360457539439</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.62833381105473052</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.56050766453362377</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="BP42" s="0">
-        <v>0</v>
+        <v>0.81939601018673347</v>
       </c>
     </row>
     <row r="43">
@@ -8840,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" s="0">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="0">
-        <v>0</v>
+        <v>0.87980719175981448</v>
       </c>
       <c r="AC43" s="0">
         <v>0</v>
@@ -8900,10 +8900,10 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.85847931072748929</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.82769870717994243</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.83674376092803071</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="BL43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM43" s="0">
         <v>0</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0</v>
+        <v>0.6462587247492233</v>
       </c>
       <c r="B44" s="0">
         <v>0</v>
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="AF44" s="0">
-        <v>0</v>
+        <v>0.91507285248406167</v>
       </c>
       <c r="AG44" s="0">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ44" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.64863959825044071</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9118,10 +9118,10 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.7136996021378883</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0</v>
+        <v>0.658849006039397</v>
       </c>
       <c r="AK45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.58242538872442373</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.77530709203564274</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.71944043596585106</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="BD45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE45" s="0">
         <v>0</v>
@@ -9375,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="BJ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK45" s="0">
         <v>0</v>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="0">
-        <v>0</v>
+        <v>0.54851194857691055</v>
       </c>
       <c r="O46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.77993933683405547</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.76081836481949905</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.51892180906359431</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.72758460928231328</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.95641838724579431</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.80749335656234444</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.81247443739328484</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.67970835236839</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="0">
-        <v>0</v>
+        <v>0.9200133974709207</v>
       </c>
       <c r="H48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.84296746143783197</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.54810924397416705</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="BJ48" s="0">
-        <v>0</v>
+        <v>0.86300351166283762</v>
       </c>
       <c r="BK48" s="0">
         <v>0</v>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="0">
-        <v>0</v>
+        <v>0.57250226988022912</v>
       </c>
       <c r="S49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.87511616436583539</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.96214100546233383</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="0">
-        <v>0</v>
+        <v>0.63312764533359389</v>
       </c>
       <c r="J50" s="0">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="BH50" s="0">
-        <v>0</v>
+        <v>0.55631689841784016</v>
       </c>
       <c r="BI50" s="0">
         <v>0</v>
@@ -10420,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="BO50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP50" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.92980131895856033</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.72796096607145477</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="BF51" s="0">
-        <v>0</v>
+        <v>0.93679277270674377</v>
       </c>
       <c r="BG51" s="0">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="0">
         <v>0</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="AE52" s="0">
-        <v>0</v>
+        <v>0.85260329329199003</v>
       </c>
       <c r="AF52" s="0">
         <v>0</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="0">
-        <v>0</v>
+        <v>0.66717883657034283</v>
       </c>
       <c r="AN52" s="0">
         <v>0</v>
@@ -10784,13 +10784,13 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="BG52" s="0">
-        <v>0</v>
+        <v>0.7513595565565927</v>
       </c>
       <c r="BH52" s="0">
         <v>0</v>
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.64818836371833588</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.80307385590927205</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.94448350197036501</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="0">
         <v>0</v>
@@ -11202,16 +11202,16 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.84613309374647749</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.75951602730456802</v>
       </c>
       <c r="BD54" s="0">
-        <v>0</v>
+        <v>0.87745887314172721</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11288,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="0">
-        <v>0</v>
+        <v>0.82468211149631987</v>
       </c>
       <c r="N55" s="0">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.66000180270483644</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.50118958170461836</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.61586669369735536</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.68560577944061363</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0</v>
+        <v>0.58003201857326014</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.66157922957544568</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.5698115341637916</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.72625068359368106</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -11715,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" s="0">
         <v>0</v>
@@ -11826,10 +11826,10 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.61984894767477117</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.95239541922135273</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11838,13 +11838,13 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.94733323739933994</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
       </c>
       <c r="BI57" s="0">
-        <v>0</v>
+        <v>0.80416632994622794</v>
       </c>
       <c r="BJ57" s="0">
         <v>0</v>
@@ -11882,13 +11882,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="0">
-        <v>0</v>
+        <v>0.60962460453187228</v>
       </c>
       <c r="F58" s="0">
         <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>0</v>
+        <v>0.60911940148580612</v>
       </c>
       <c r="H58" s="0">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="AB58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="0">
         <v>0</v>
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="AG58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="0">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="AY58" s="0">
-        <v>0</v>
+        <v>0.58477039775655015</v>
       </c>
       <c r="AZ58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.57783790781306799</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="0">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="AE59" s="0">
-        <v>0</v>
+        <v>0.83719563026646515</v>
       </c>
       <c r="AF59" s="0">
         <v>0</v>
@@ -12229,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="AZ59" s="0">
-        <v>0</v>
+        <v>0.82400475891680658</v>
       </c>
       <c r="BA59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.60453214752280227</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12253,13 +12253,13 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
-        <v>0</v>
+        <v>0.77353477476155974</v>
       </c>
       <c r="BK59" s="0">
         <v>0</v>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="0">
-        <v>0</v>
+        <v>0.9965943798476592</v>
       </c>
       <c r="S60" s="0">
         <v>0</v>
@@ -12429,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="AX60" s="0">
-        <v>0</v>
+        <v>0.95074103635922769</v>
       </c>
       <c r="AY60" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.63421726284385849</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.54437646733268019</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12557,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="0">
-        <v>0</v>
+        <v>0.84834470289150254</v>
       </c>
       <c r="Y61" s="0">
         <v>0</v>
@@ -12656,25 +12656,25 @@
         <v>0</v>
       </c>
       <c r="BE61" s="0">
-        <v>0</v>
+        <v>0.86139039784903371</v>
       </c>
       <c r="BF61" s="0">
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.84316224790450045</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.91800107615663784</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12799,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="0">
-        <v>0</v>
+        <v>0.64613341539569147</v>
       </c>
       <c r="AK62" s="0">
         <v>0</v>
@@ -12826,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="0">
         <v>0</v>
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="AV62" s="0">
-        <v>0</v>
+        <v>0.79241086752679046</v>
       </c>
       <c r="AW62" s="0">
         <v>0</v>
@@ -12868,22 +12868,22 @@
         <v>0</v>
       </c>
       <c r="BG62" s="0">
-        <v>0</v>
+        <v>0.90261066749574548</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.55886481268257748</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.96124690655654454</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.844914202182941</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="0">
-        <v>0</v>
+        <v>0.94240736147658799</v>
       </c>
       <c r="W63" s="0">
         <v>0</v>
@@ -12996,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="AG63" s="0">
-        <v>0</v>
+        <v>0.5501984113659083</v>
       </c>
       <c r="AH63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.91796909114328729</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13127,10 +13127,10 @@
         <v>0</v>
       </c>
       <c r="H64" s="0">
-        <v>0</v>
+        <v>0.52427089852847919</v>
       </c>
       <c r="I64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="0">
         <v>0</v>
@@ -13163,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="0">
-        <v>0</v>
+        <v>0.96219020657703402</v>
       </c>
       <c r="U64" s="0">
         <v>0</v>
@@ -13232,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR64" s="0">
         <v>0</v>
@@ -13289,16 +13289,16 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.79904336380829344</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.76837615951145766</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.71286380081621914</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13327,13 +13327,13 @@
         <v>0</v>
       </c>
       <c r="F65" s="0">
-        <v>0</v>
+        <v>0.51518533024171942</v>
       </c>
       <c r="G65" s="0">
         <v>0</v>
       </c>
       <c r="H65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.74216310359894233</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.90334889053609546</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="0">
         <v>0</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="0">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="0">
-        <v>0</v>
+        <v>0.85636681640426637</v>
       </c>
       <c r="K66" s="0">
         <v>0</v>
@@ -13710,21 +13710,21 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.97222395041078502</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.79000597928954464</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.73524912355129879</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" s="0">
         <v>0</v>
@@ -13871,7 +13871,7 @@
         <v>0</v>
       </c>
       <c r="AX67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.82468201265670138</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.60283413226140337</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.85018267936524183</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.53618243932360632</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13993,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68" s="0">
         <v>0</v>
@@ -14053,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="0">
-        <v>0</v>
+        <v>0.96378940428828908</v>
       </c>
       <c r="AQ68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.60429879445381807</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.54647577493366717</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject41.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject41.xlsx
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.66076795556498813</v>
+        <v>0.73524912355129879</v>
       </c>
       <c r="BP1" s="0">
         <v>0.73347263623829517</v>
@@ -334,16 +334,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.7987087748702274</v>
+        <v>0.99958967067344817</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.72458627497738504</v>
+        <v>0.87634497938973621</v>
       </c>
       <c r="D2" s="0">
-        <v>0.72432500112262066</v>
+        <v>0.83376708623198104</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.58566453864437562</v>
+        <v>0.80160813104050299</v>
       </c>
       <c r="B3" s="0">
         <v>0.87634497938973621</v>
@@ -752,7 +752,7 @@
         <v>0.83376708623198104</v>
       </c>
       <c r="C4" s="0">
-        <v>0.88578099112270481</v>
+        <v>0.99286037331190991</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="0">
-        <v>0.71726380967592374</v>
+        <v>0.78287507434435799</v>
       </c>
       <c r="S4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.61907251355774728</v>
+        <v>0.84728002203559005</v>
       </c>
       <c r="D5" s="0">
-        <v>0.98758574656225573</v>
+        <v>0.9908634784191428</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0.73906276585403852</v>
       </c>
       <c r="G5" s="0">
-        <v>0.80641223448761989</v>
+        <v>0.91237750197290202</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.62940143746938815</v>
+        <v>0.73906276585403852</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.57237095177809372</v>
+        <v>0.58482062852197902</v>
       </c>
       <c r="AB6" s="0">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="AV7" s="0">
-        <v>0.6490050678570195</v>
+        <v>0.9200133974709207</v>
       </c>
       <c r="AW7" s="0">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="0">
-        <v>0.50551477487663909</v>
+        <v>0.60911940148580612</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.71502299782399037</v>
+        <v>0.76950912727597365</v>
       </c>
       <c r="G8" s="0">
-        <v>0.73185752343479316</v>
+        <v>0.89070661632450054</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.91953263462828094</v>
+        <v>0.9608511352228255</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.78414032243415543</v>
+        <v>0.79763612431322661</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.63588464090796926</v>
+        <v>0.72591733727498242</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="BN10" s="0">
-        <v>0.73112371548254695</v>
+        <v>0.85636681640426637</v>
       </c>
       <c r="BO10" s="0">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.54676887352285664</v>
+        <v>0.56677959721080606</v>
       </c>
       <c r="M11" s="0">
         <v>0.71527665042591226</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.85769331419913675</v>
+        <v>0.92643954940867468</v>
       </c>
       <c r="K12" s="0">
         <v>0.56677959721080606</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.58914250644611288</v>
+        <v>0.823465559301091</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="0">
-        <v>0.62834043315272448</v>
+        <v>0.76941794146598852</v>
       </c>
       <c r="V12" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.68235007113487489</v>
+        <v>0.71527665042591226</v>
       </c>
       <c r="L13" s="0">
         <v>0.823465559301091</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="BC13" s="0">
-        <v>0.70051855325416579</v>
+        <v>0.82468211149631987</v>
       </c>
       <c r="BD13" s="0">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>0.75259326959754969</v>
+        <v>0.81058717676301306</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="AT14" s="0">
-        <v>0.50832746093204728</v>
+        <v>0.54851194857691055</v>
       </c>
       <c r="AU14" s="0">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.70951451609259253</v>
+        <v>0.91196345191192152</v>
       </c>
       <c r="Q15" s="0">
         <v>0.71022724029936679</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.80538629507621895</v>
+        <v>0.95980613510115043</v>
       </c>
       <c r="O16" s="0">
         <v>0.91196345191192152</v>
@@ -3269,7 +3269,7 @@
         <v>0.71186211194907001</v>
       </c>
       <c r="R16" s="0">
-        <v>0.68729330375550945</v>
+        <v>0.71652920966889355</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.52041276831592209</v>
+        <v>0.71022724029936679</v>
       </c>
       <c r="P17" s="0">
-        <v>0.59788244636629551</v>
+        <v>0.71186211194907001</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0.71652920966889355</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.54030403884165712</v>
+        <v>0.56799032879367783</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="BH18" s="0">
-        <v>0.74369553290722923</v>
+        <v>0.9965943798476592</v>
       </c>
       <c r="BI18" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.65486646834897744</v>
+        <v>0.72312565429219311</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.80636612854858081</v>
+        <v>0.996787686593397</v>
       </c>
       <c r="U19" s="0">
         <v>0.95912699983626326</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.5011157054182287</v>
+        <v>0.62394115414427298</v>
       </c>
       <c r="S20" s="0">
         <v>0.996787686593397</v>
@@ -4105,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.50691572396995055</v>
+        <v>0.97602517818492696</v>
       </c>
       <c r="W20" s="0">
-        <v>0.70755466109082732</v>
+        <v>0.71665208328950514</v>
       </c>
       <c r="X20" s="0">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="AH20" s="0">
-        <v>0.61816656343593901</v>
+        <v>0.93541608944169519</v>
       </c>
       <c r="AI20" s="0">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="BL20" s="0">
-        <v>0.72114082877060981</v>
+        <v>0.96219020657703402</v>
       </c>
       <c r="BM20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.76873187846473923</v>
+        <v>0.95912699983626326</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.55863604232916531</v>
+        <v>0.94783400888187064</v>
       </c>
       <c r="W21" s="0">
-        <v>0.67531899675770335</v>
+        <v>0.76760518276459866</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0.65131454113367071</v>
       </c>
       <c r="X22" s="0">
-        <v>0.78214164919569851</v>
+        <v>0.78669934854879231</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="0">
-        <v>0.68348084746491744</v>
+        <v>0.70321570038141745</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0.76760518276459866</v>
       </c>
       <c r="V23" s="0">
-        <v>0.59066734982400126</v>
+        <v>0.65131454113367071</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="0">
-        <v>0.80972379438223763</v>
+        <v>0.81319415764400338</v>
       </c>
       <c r="S24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.57060400695664193</v>
+        <v>0.64255756526759578</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5350,16 +5350,16 @@
         <v>0.64255756526759578</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.64243874237861509</v>
+        <v>0.85013604972938039</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.55938231913005909</v>
+        <v>0.89334169770480454</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.78455112820245687</v>
+        <v>0.8551507705843564</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.56656511821851807</v>
+        <v>0.73102503519606066</v>
       </c>
       <c r="Z27" s="0">
         <v>0.89334169770480454</v>
@@ -5568,7 +5568,7 @@
         <v>0.9284787483787158</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.59030904092327841</v>
+        <v>0.66031582123051646</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0.8551507705843564</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.70045058209609368</v>
+        <v>0.9284787483787158</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5813,10 +5813,10 @@
         <v>0</v>
       </c>
       <c r="AP28" s="0">
-        <v>0.58340906479151544</v>
+        <v>0.69264997277674878</v>
       </c>
       <c r="AQ28" s="0">
-        <v>0.57188860850921852</v>
+        <v>0.87980719175981448</v>
       </c>
       <c r="AR28" s="0">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0.66031582123051646</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.57833827638024338</v>
+        <v>0.74270323269755045</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.53212203724726925</v>
+        <v>0.8153522875375514</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0.93310298694314453</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.65658824413217909</v>
+        <v>0.79455780362584583</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="0">
-        <v>0.67503256539741008</v>
+        <v>0.80360215688225844</v>
       </c>
       <c r="J31" s="0">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.94403795663719636</v>
+        <v>0.94949026874095466</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.79528066292791499</v>
+        <v>0.93310298694314453</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.82985033293138433</v>
+        <v>0.88281038166611225</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="AO31" s="0">
-        <v>0.91848619813314281</v>
+        <v>0.97210619858971703</v>
       </c>
       <c r="AP31" s="0">
         <v>0</v>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="BG31" s="0">
-        <v>0.63143613323988523</v>
+        <v>0.83719563026646515</v>
       </c>
       <c r="BH31" s="0">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="0">
-        <v>0.65954199089510834</v>
+        <v>0.91507285248406167</v>
       </c>
       <c r="AS32" s="0">
         <v>0</v>
@@ -7019,16 +7019,16 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.93635087263524075</v>
+        <v>0.96701304900656648</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.81657962994234401</v>
+        <v>0.99153469536763184</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.69436615773615062</v>
+        <v>0.89298028774078664</v>
       </c>
       <c r="AJ34" s="0">
         <v>0.81545706160733078</v>
@@ -7237,10 +7237,10 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.58550600892541549</v>
+        <v>0.78711130038200328</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.72257852134098643</v>
+        <v>0.81273166291140964</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.65657075808499277</v>
+        <v>0.81545706160733078</v>
       </c>
       <c r="AI36" s="0">
         <v>0.78711130038200328</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.52535292103396436</v>
+        <v>0.85643648509456882</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -8064,16 +8064,16 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.74595998682626252</v>
+        <v>0.8018215649742817</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.63571413049694137</v>
+        <v>0.99269615990007765</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.8243163372761324</v>
+        <v>0.94754371425409067</v>
       </c>
       <c r="AO39" s="0">
         <v>0.96375100914857403</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.67700920740095838</v>
+        <v>0.93972445487089751</v>
       </c>
       <c r="AM40" s="0">
         <v>0.94754371425409067</v>
@@ -8285,7 +8285,7 @@
         <v>0.95636540587256902</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.69075659878441287</v>
+        <v>0.75554656535324471</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.50984479896716106</v>
+        <v>0.96375100914857403</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.91647635224788104</v>
+        <v>0.95636540587256902</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8694,16 +8694,16 @@
         <v>0.75554656535324471</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.51571360457539439</v>
+        <v>0.92403049625705824</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.62833381105473052</v>
+        <v>0.82769870717994243</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.56050766453362377</v>
+        <v>0.64863959825044071</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="BP42" s="0">
-        <v>0.81939601018673347</v>
+        <v>0.96378940428828908</v>
       </c>
     </row>
     <row r="43">
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.85847931072748929</v>
+        <v>0.99364011224079585</v>
       </c>
       <c r="AP43" s="0">
         <v>0.82769870717994243</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.6462587247492233</v>
+        <v>0.74551231454127342</v>
       </c>
       <c r="B44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.7136996021378883</v>
+        <v>0.77993933683405547</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0.658849006039397</v>
+        <v>0.9412821622225116</v>
       </c>
       <c r="AK45" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.58242538872442373</v>
+        <v>0.83674376092803071</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0.77530709203564274</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.71944043596585106</v>
+        <v>0.95641838724579431</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9530,16 +9530,16 @@
         <v>0.77993933683405547</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.76081836481949905</v>
+        <v>0.77530709203564274</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.51892180906359431</v>
+        <v>0.80749335656234444</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.72758460928231328</v>
+        <v>0.84296746143783197</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0.81247443739328484</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.67970835236839</v>
+        <v>0.87511616436583539</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0.84296746143783197</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.54810924397416705</v>
+        <v>0.81247443739328484</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="0">
-        <v>0.57250226988022912</v>
+        <v>0.58504796208101428</v>
       </c>
       <c r="S49" s="0">
         <v>0</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="0">
-        <v>0.63312764533359389</v>
+        <v>0.86868677105314185</v>
       </c>
       <c r="J50" s="0">
         <v>0</v>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="BH50" s="0">
-        <v>0.55631689841784016</v>
+        <v>0.95074103635922769</v>
       </c>
       <c r="BI50" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.92980131895856033</v>
+        <v>0.96214100546233383</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="AE52" s="0">
-        <v>0.85260329329199003</v>
+        <v>0.91936158617052888</v>
       </c>
       <c r="AF52" s="0">
         <v>0</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="0">
-        <v>0.66717883657034283</v>
+        <v>0.92867833189556181</v>
       </c>
       <c r="AN52" s="0">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="BG52" s="0">
-        <v>0.7513595565565927</v>
+        <v>0.82400475891680658</v>
       </c>
       <c r="BH52" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.64818836371833588</v>
+        <v>0.72796096607145477</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.80307385590927205</v>
+        <v>0.84613309374647749</v>
       </c>
       <c r="BC53" s="0">
         <v>0.94448350197036501</v>
@@ -11408,16 +11408,16 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.66000180270483644</v>
+        <v>0.94448350197036501</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.50118958170461836</v>
+        <v>0.75951602730456802</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.61586669369735536</v>
+        <v>0.66157922957544568</v>
       </c>
       <c r="BE55" s="0">
         <v>0.68560577944061363</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.58003201857326014</v>
+        <v>0.87745887314172721</v>
       </c>
       <c r="BC56" s="0">
         <v>0.66157922957544568</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.5698115341637916</v>
+        <v>0.95239541922135273</v>
       </c>
       <c r="BF56" s="0">
         <v>0.72625068359368106</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.61984894767477117</v>
+        <v>0.68560577944061363</v>
       </c>
       <c r="BD57" s="0">
         <v>0.95239541922135273</v>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="BI57" s="0">
-        <v>0.80416632994622794</v>
+        <v>0.86139039784903371</v>
       </c>
       <c r="BJ57" s="0">
         <v>0</v>
@@ -11882,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="0">
-        <v>0.60962460453187228</v>
+        <v>0.82645234113266119</v>
       </c>
       <c r="F58" s="0">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="AY58" s="0">
-        <v>0.58477039775655015</v>
+        <v>0.93679277270674377</v>
       </c>
       <c r="AZ58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.57783790781306799</v>
+        <v>0.72625068359368106</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.60453214752280227</v>
+        <v>0.94733323739933994</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12259,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="BJ59" s="0">
-        <v>0.77353477476155974</v>
+        <v>0.90261066749574548</v>
       </c>
       <c r="BK59" s="0">
         <v>0</v>
@@ -12462,10 +12462,10 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.63421726284385849</v>
+        <v>0.84316224790450045</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.54437646733268019</v>
+        <v>0.55886481268257748</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12557,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="0">
-        <v>0.84834470289150254</v>
+        <v>0.95493004868761466</v>
       </c>
       <c r="Y61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.91800107615663784</v>
+        <v>0.96124690655654454</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12799,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="0">
-        <v>0.64613341539569147</v>
+        <v>0.76124612723843732</v>
       </c>
       <c r="AK62" s="0">
         <v>0</v>
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="AV62" s="0">
-        <v>0.79241086752679046</v>
+        <v>0.86300351166283762</v>
       </c>
       <c r="AW62" s="0">
         <v>0</v>
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="0">
-        <v>0.94240736147658799</v>
+        <v>0.95083535124919627</v>
       </c>
       <c r="W63" s="0">
         <v>0</v>
@@ -12996,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="AG63" s="0">
-        <v>0.5501984113659083</v>
+        <v>0.58978621784067409</v>
       </c>
       <c r="AH63" s="0">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="0">
-        <v>0.52427089852847919</v>
+        <v>0.91787747736406355</v>
       </c>
       <c r="I64" s="0">
         <v>0</v>
@@ -13289,16 +13289,16 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.79904336380829344</v>
+        <v>0.844914202182941</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.76837615951145766</v>
+        <v>0.91796909114328729</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.71286380081621914</v>
+        <v>0.74216310359894233</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13327,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="0">
-        <v>0.51518533024171942</v>
+        <v>0.71964095950613272</v>
       </c>
       <c r="G65" s="0">
         <v>0</v>
@@ -13916,10 +13916,10 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.82468201265670138</v>
+        <v>0.90334889053609546</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.60283413226140337</v>
+        <v>0.97222395041078502</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.53618243932360632</v>
+        <v>0.73347263623829517</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0.60429879445381807</v>
+        <v>0.79000597928954464</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.54647577493366717</v>
+        <v>0.85018267936524183</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
